--- a/Results.xlsx
+++ b/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>№</t>
   </si>
@@ -24,6 +24,12 @@
   </si>
   <si>
     <t>k.,f</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>fsef</t>
   </si>
 </sst>
 </file>
@@ -68,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -96,6 +102,72 @@
         <v>713.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>713.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>713.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>713.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>53.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>№</t>
   </si>
@@ -26,10 +26,10 @@
     <t>k.,f</t>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>fsef</t>
+    <t>he</t>
+  </si>
+  <si>
+    <t>vdv</t>
   </si>
 </sst>
 </file>
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -140,10 +140,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>59.0</v>
+        <v>713.0</v>
       </c>
     </row>
     <row r="7">
@@ -151,10 +151,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>53.0</v>
+        <v>713.0</v>
       </c>
     </row>
     <row r="8">
@@ -162,10 +162,43 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>713.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>713.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>654.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C8" t="n" s="0">
-        <v>53.0</v>
+      <c r="C11" t="n" s="0">
+        <v>307.0</v>
       </c>
     </row>
   </sheetData>
